--- a/Python/CSV/AddressBook/Addresses.xlsx
+++ b/Python/CSV/AddressBook/Addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mbro-my.sharepoint.com/personal/m2300318_middlesbro_ac_uk/Documents/Documents/GitHub/Year-1-Challanges/Python/CSV/AddressBook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{20182C20-9286-41C2-AE4C-224020594E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED280DF-6BE7-4EDA-AB7D-CE66373674B4}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{20182C20-9286-41C2-AE4C-224020594E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E160A407-B17F-4E1A-82C4-8F7301884C70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Surname</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Forename</t>
+  </si>
+  <si>
+    <t>Kacyee</t>
+  </si>
+  <si>
+    <t>My Basement</t>
+  </si>
+  <si>
+    <t>My House</t>
+  </si>
+  <si>
+    <t>Dumbo</t>
   </si>
 </sst>
 </file>
@@ -965,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,6 +1126,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
